--- a/化工/eta/PTA现货价_月度数据.xlsx
+++ b/化工/eta/PTA现货价_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>3778.78</v>
+        <v>4741.95</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3926.09</v>
+        <v>3973</v>
       </c>
       <c r="C3" t="n">
-        <v>4097</v>
+        <v>4627.43</v>
       </c>
     </row>
     <row r="4">
